--- a/src/attributions/attributions_saliency_traj_217.xlsx
+++ b/src/attributions/attributions_saliency_traj_217.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.031112181721255e-05</v>
+        <v>5.046915248385631e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>1.929732025018893e-05</v>
+        <v>8.161646292137448e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>1.066703225660603e-05</v>
+        <v>5.377115940063959e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>3.458155697444454e-05</v>
+        <v>1.509217327111401e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>9.296005737269297e-05</v>
+        <v>2.32793900067918e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0001032018844853155</v>
+        <v>1.799926849344047e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>7.810645911376923e-05</v>
+        <v>3.850095708912704e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>7.843235835025553e-06</v>
+        <v>2.467571675879299e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0568930520094e-05</v>
+        <v>3.852223926514853e-07</v>
       </c>
       <c r="J2" t="n">
-        <v>8.489234460284933e-05</v>
+        <v>6.916412530699745e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>1.747998976497911e-05</v>
+        <v>8.393315511057153e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>3.350484257680364e-05</v>
+        <v>5.087401859782403e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>1.4546452803188e-05</v>
+        <v>1.520367550256196e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>7.038851617835462e-05</v>
+        <v>1.59353453454969e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>7.516579353250563e-05</v>
+        <v>8.173330570571125e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>3.847735933959484e-05</v>
+        <v>1.834932845667936e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.301191777107306e-06</v>
+        <v>5.005584625905612e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>2.767639489320572e-05</v>
+        <v>2.792148507069214e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>3.094507337664254e-05</v>
+        <v>2.159592895623064e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>8.5167648649076e-06</v>
+        <v>3.217982339265291e-06</v>
       </c>
       <c r="U2" t="n">
-        <v>1.658324435993563e-05</v>
+        <v>6.015679900883697e-07</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0001012866123346612</v>
+        <v>5.540130132430932e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>4.496997280512005e-05</v>
+        <v>2.817244649122586e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>2.399341792624909e-05</v>
+        <v>4.341899057180854e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.85493663593661e-05</v>
+        <v>1.631900431675604e-06</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.239881723653525e-05</v>
+        <v>2.517310122129857e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.923587064491585e-05</v>
+        <v>6.872738822494284e-07</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.105168394133216e-06</v>
+        <v>3.108588316536043e-06</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.492191768193152e-05</v>
+        <v>2.284944912389619e-06</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.815718835336156e-05</v>
+        <v>1.236114940184052e-06</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.50181856751442e-07</v>
+        <v>3.528190973156597e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.427412618999369e-05</v>
+        <v>7.298358923435444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.615774964302545e-06</v>
+        <v>2.147777195204981e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.925374064943753e-05</v>
+        <v>5.255567430140218e-07</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.167312348115956e-06</v>
+        <v>2.075654492728063e-06</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.553496415202972e-06</v>
+        <v>1.733188923935813e-06</v>
       </c>
       <c r="AK2" t="n">
-        <v>9.61009027378168e-06</v>
+        <v>3.003694246217492e-06</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.074505871656584e-05</v>
+        <v>7.126384844013955e-06</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.637409463408403e-05</v>
+        <v>3.133027917101572e-07</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.511287675588392e-06</v>
+        <v>1.598450239725935e-06</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.544355766076478e-06</v>
+        <v>1.412210615114873e-08</v>
       </c>
       <c r="AP2" t="n">
-        <v>9.428062185179442e-06</v>
+        <v>7.37534776362736e-07</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.957270564569626e-07</v>
+        <v>7.572390359200654e-07</v>
       </c>
       <c r="AR2" t="n">
-        <v>4.872676072409377e-06</v>
+        <v>6.698926426906837e-07</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.672730104473885e-05</v>
+        <v>2.438916453684215e-06</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.199174559791572e-05</v>
+        <v>2.725065087361145e-06</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.63857257575728e-05</v>
+        <v>3.504464757497772e-06</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.222531657025684e-05</v>
+        <v>2.306310761923669e-06</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.208916000905447e-05</v>
+        <v>7.524568900407758e-06</v>
       </c>
       <c r="AX2" t="n">
-        <v>2.784698699542787e-05</v>
+        <v>2.251721980428556e-06</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.817966924339999e-05</v>
+        <v>2.853426394722192e-06</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.755881930876058e-05</v>
+        <v>3.747595656022895e-07</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.218954821524676e-05</v>
+        <v>1.802881826051816e-07</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.655239040905144e-05</v>
+        <v>3.652501618489623e-06</v>
       </c>
       <c r="BC2" t="n">
-        <v>3.810281850746833e-05</v>
+        <v>2.362223483487469e-07</v>
       </c>
       <c r="BD2" t="n">
-        <v>5.554156359721674e-06</v>
+        <v>1.271188011742197e-06</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.052602965501137e-05</v>
+        <v>2.779185933832196e-06</v>
       </c>
       <c r="BF2" t="n">
-        <v>2.797588422254194e-05</v>
+        <v>6.389296686393209e-06</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.94343439640943e-05</v>
+        <v>3.798491661655135e-06</v>
       </c>
       <c r="BH2" t="n">
-        <v>6.754334026481956e-05</v>
+        <v>2.804863470373675e-06</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.8744658518699e-06</v>
+        <v>1.33149410430633e-06</v>
       </c>
       <c r="BJ2" t="n">
-        <v>4.521333175944164e-05</v>
+        <v>8.528011221642373e-07</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.891673036880093e-06</v>
+        <v>1.162669377663406e-06</v>
       </c>
       <c r="BL2" t="n">
-        <v>7.943081982375588e-06</v>
+        <v>8.440192686975934e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.889098166429903e-05</v>
+        <v>6.970933100092225e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>9.701209364720853e-07</v>
+        <v>1.018857005874452e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.172596057585906e-06</v>
+        <v>5.520768695532752e-07</v>
       </c>
       <c r="BP2" t="n">
-        <v>7.156623723858502e-06</v>
+        <v>1.63662593877234e-06</v>
       </c>
       <c r="BQ2" t="n">
-        <v>4.152038309257478e-05</v>
+        <v>4.588032425090205e-07</v>
       </c>
       <c r="BR2" t="n">
-        <v>3.727024522959255e-05</v>
+        <v>1.828084350563586e-07</v>
       </c>
       <c r="BS2" t="n">
-        <v>2.784565367619507e-05</v>
+        <v>2.096615844493499e-06</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.760330292199797e-06</v>
+        <v>1.493085619586054e-07</v>
       </c>
       <c r="BU2" t="n">
-        <v>4.632967466022819e-05</v>
+        <v>4.260833520675078e-06</v>
       </c>
       <c r="BV2" t="n">
-        <v>9.373099601361901e-06</v>
+        <v>2.65684775513364e-06</v>
       </c>
       <c r="BW2" t="n">
-        <v>9.246764420822728e-08</v>
+        <v>1.666600724092859e-06</v>
       </c>
       <c r="BX2" t="n">
-        <v>4.860777335125022e-05</v>
+        <v>1.904627879412146e-06</v>
       </c>
       <c r="BY2" t="n">
-        <v>3.991523772128858e-05</v>
+        <v>4.832257673115237e-06</v>
       </c>
       <c r="BZ2" t="n">
-        <v>6.218859925866127e-05</v>
+        <v>1.284475729335099e-06</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.515784697403433e-05</v>
+        <v>7.342283652178594e-07</v>
       </c>
       <c r="CB2" t="n">
-        <v>2.649403313625953e-06</v>
+        <v>1.397333221575536e-06</v>
       </c>
       <c r="CC2" t="n">
-        <v>4.149489541305229e-06</v>
+        <v>9.914484735418228e-07</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.025176061375532e-05</v>
+        <v>3.888232640747447e-06</v>
       </c>
       <c r="CE2" t="n">
-        <v>6.085179848014377e-06</v>
+        <v>1.130308987740136e-06</v>
       </c>
       <c r="CF2" t="n">
-        <v>3.168923740304308e-06</v>
+        <v>9.667820677350392e-07</v>
       </c>
       <c r="CG2" t="n">
-        <v>2.300287633261178e-05</v>
+        <v>4.566148618323496e-06</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.341171082458459e-05</v>
+        <v>8.722597613086691e-07</v>
       </c>
       <c r="CI2" t="n">
-        <v>7.8603425208712e-06</v>
+        <v>1.272921167583263e-06</v>
       </c>
       <c r="CJ2" t="n">
-        <v>2.607566602819134e-05</v>
+        <v>8.334691870004463e-07</v>
       </c>
       <c r="CK2" t="n">
-        <v>2.019948988163378e-05</v>
+        <v>1.24776124721393e-06</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.074531837730319e-06</v>
+        <v>5.295015057527053e-07</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.848184547270648e-05</v>
+        <v>1.919341912071104e-07</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.828593849495519e-05</v>
+        <v>1.277073579331045e-06</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.363993033010047e-05</v>
+        <v>1.074573447112925e-06</v>
       </c>
       <c r="CP2" t="n">
-        <v>4.756566340802237e-05</v>
+        <v>5.262289050733671e-06</v>
       </c>
       <c r="CQ2" t="n">
-        <v>3.225023465347476e-05</v>
+        <v>3.561003040886135e-06</v>
       </c>
       <c r="CR2" t="n">
-        <v>1.433089892088901e-05</v>
+        <v>9.894181403069524e-07</v>
       </c>
       <c r="CS2" t="n">
-        <v>2.074448639177717e-05</v>
+        <v>3.783317652050755e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>2.007546208915301e-05</v>
+        <v>4.659144906327128e-06</v>
       </c>
       <c r="CU2" t="n">
-        <v>4.469797204365022e-05</v>
+        <v>2.846930556188454e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>6.860471330583096e-06</v>
+        <v>4.54445125797065e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>7.080760951794218e-06</v>
+        <v>1.273426505576936e-06</v>
       </c>
       <c r="CX2" t="n">
-        <v>7.216687208710937e-06</v>
+        <v>4.308040502110089e-08</v>
       </c>
       <c r="CY2" t="n">
-        <v>2.656510696397163e-05</v>
+        <v>3.321086296637077e-06</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.923551280924585e-05</v>
+        <v>5.387856845118222e-07</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.518044246040517e-05</v>
+        <v>1.561802037031157e-06</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.641468043089844e-05</v>
+        <v>5.648524847856606e-07</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.772338146110997e-05</v>
+        <v>1.30080979943159e-06</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.988290387089364e-05</v>
+        <v>7.035660587462189e-07</v>
       </c>
       <c r="DE2" t="n">
-        <v>2.770304308796767e-05</v>
+        <v>6.710116622343776e-07</v>
       </c>
       <c r="DF2" t="n">
-        <v>3.53644645656459e-06</v>
+        <v>9.03796808415791e-06</v>
       </c>
       <c r="DG2" t="n">
-        <v>6.612473953282461e-06</v>
+        <v>3.465427198534599e-06</v>
       </c>
       <c r="DH2" t="n">
-        <v>1.606127079867292e-05</v>
+        <v>1.896133198897587e-06</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.516912288934691e-05</v>
+        <v>6.704971838189522e-06</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.320870069321245e-06</v>
+        <v>4.479014933167491e-06</v>
       </c>
       <c r="DK2" t="n">
-        <v>4.945708133163862e-05</v>
+        <v>6.24983567831805e-06</v>
       </c>
       <c r="DL2" t="n">
-        <v>9.766082257556263e-06</v>
+        <v>1.596144159066171e-07</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.874419467640109e-05</v>
+        <v>2.933717496489407e-06</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.95825778064318e-05</v>
+        <v>3.58941520062217e-06</v>
       </c>
       <c r="DO2" t="n">
-        <v>4.621164180207415e-07</v>
+        <v>1.242457187800028e-06</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.034730277955532e-05</v>
+        <v>4.251673544786172e-06</v>
       </c>
       <c r="DQ2" t="n">
-        <v>2.966371357615571e-05</v>
+        <v>6.254308118514018e-06</v>
       </c>
       <c r="DR2" t="n">
-        <v>5.897779374208767e-06</v>
+        <v>8.238690156758821e-07</v>
       </c>
       <c r="DS2" t="n">
-        <v>3.528445859046769e-06</v>
+        <v>4.288999093660095e-07</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.1538842045411e-05</v>
+        <v>1.290662510200491e-07</v>
       </c>
       <c r="DU2" t="n">
-        <v>3.240777732571587e-05</v>
+        <v>8.699093996256124e-07</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.548090222058818e-05</v>
+        <v>1.56250393956725e-06</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.699934702832252e-05</v>
+        <v>2.721058990573511e-06</v>
       </c>
       <c r="DX2" t="n">
-        <v>6.436955118260812e-06</v>
+        <v>2.909481281676563e-06</v>
       </c>
       <c r="DY2" t="n">
-        <v>2.368429704802111e-05</v>
+        <v>2.336974347372234e-08</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.969221895909868e-05</v>
+        <v>1.761631892804871e-06</v>
       </c>
       <c r="EA2" t="n">
-        <v>2.273717836942524e-05</v>
+        <v>1.712477342152852e-06</v>
       </c>
       <c r="EB2" t="n">
-        <v>9.075434718397446e-06</v>
+        <v>3.590744654502487e-06</v>
       </c>
       <c r="EC2" t="n">
-        <v>2.818028588080779e-05</v>
+        <v>2.996468310811906e-06</v>
       </c>
       <c r="ED2" t="n">
-        <v>5.524090738617815e-06</v>
+        <v>4.055078534292988e-06</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.013733708532527e-05</v>
+        <v>2.090307589242002e-06</v>
       </c>
       <c r="EF2" t="n">
-        <v>2.884766763600055e-05</v>
+        <v>1.538589003757806e-06</v>
       </c>
       <c r="EG2" t="n">
-        <v>3.560680852388032e-06</v>
+        <v>1.076922444553929e-06</v>
       </c>
       <c r="EH2" t="n">
-        <v>5.336721073945228e-07</v>
+        <v>1.377583203066024e-07</v>
       </c>
       <c r="EI2" t="n">
-        <v>2.19098110392224e-05</v>
+        <v>7.755133083264809e-06</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.536632225906942e-05</v>
+        <v>1.289031843043631e-06</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.482322022638982e-05</v>
+        <v>1.364703393846867e-06</v>
       </c>
       <c r="EL2" t="n">
-        <v>8.306600648211315e-06</v>
+        <v>1.047881482918456e-06</v>
       </c>
       <c r="EM2" t="n">
-        <v>7.106679277057992e-06</v>
+        <v>4.012303634226555e-06</v>
       </c>
       <c r="EN2" t="n">
-        <v>1.846916711656377e-05</v>
+        <v>1.132499960476707e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>1.798647826944944e-05</v>
+        <v>5.979467459837906e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>2.364980718994047e-05</v>
+        <v>7.803150197105424e-07</v>
       </c>
       <c r="EQ2" t="n">
-        <v>7.422575890814187e-06</v>
+        <v>3.975742856709985e-06</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.217028329847381e-05</v>
+        <v>2.671124775588396e-06</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.477389741921797e-05</v>
+        <v>6.197442417033017e-07</v>
       </c>
       <c r="ET2" t="n">
-        <v>7.287719654414104e-06</v>
+        <v>5.194694495003205e-06</v>
       </c>
       <c r="EU2" t="n">
-        <v>2.483615571691189e-05</v>
+        <v>1.147621674135735e-06</v>
       </c>
       <c r="EV2" t="n">
-        <v>8.9465993369231e-06</v>
+        <v>1.351645664726675e-06</v>
       </c>
       <c r="EW2" t="n">
-        <v>4.296906627132557e-05</v>
+        <v>3.788366029766621e-06</v>
       </c>
       <c r="EX2" t="n">
-        <v>8.858240107656457e-06</v>
+        <v>5.089271326141898e-06</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.025333222059999e-05</v>
+        <v>1.645360725888168e-06</v>
       </c>
       <c r="EZ2" t="n">
-        <v>6.143740392872132e-06</v>
+        <v>2.896740056712588e-07</v>
       </c>
       <c r="FA2" t="n">
-        <v>1.975160375877749e-05</v>
+        <v>4.539132078207331e-06</v>
       </c>
       <c r="FB2" t="n">
-        <v>2.368375135120004e-05</v>
+        <v>7.957262369018281e-07</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.419062209606636e-05</v>
+        <v>6.064749982215289e-07</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.047657042363426e-05</v>
+        <v>1.970733478628972e-07</v>
       </c>
       <c r="FE2" t="n">
-        <v>2.063534338958561e-05</v>
+        <v>3.880349481732992e-07</v>
       </c>
       <c r="FF2" t="n">
-        <v>2.586691380201955e-06</v>
+        <v>1.385401333209302e-06</v>
       </c>
       <c r="FG2" t="n">
-        <v>2.25056464842055e-05</v>
+        <v>5.486799636855721e-08</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.987112227652688e-05</v>
+        <v>5.242372026259545e-06</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.622413947188761e-06</v>
+        <v>7.943755235828576e-07</v>
       </c>
       <c r="FJ2" t="n">
-        <v>5.109081030241214e-05</v>
+        <v>3.163554310958716e-06</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.766184504958801e-05</v>
+        <v>2.58476211456582e-06</v>
       </c>
       <c r="FL2" t="n">
-        <v>2.785610195132904e-05</v>
+        <v>3.684489229272003e-07</v>
       </c>
       <c r="FM2" t="n">
-        <v>3.035110239579808e-06</v>
+        <v>1.66783468102949e-06</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.388348755426705e-05</v>
+        <v>3.000385049745091e-06</v>
       </c>
       <c r="FO2" t="n">
-        <v>5.357931149774231e-05</v>
+        <v>6.914733603480272e-07</v>
       </c>
       <c r="FP2" t="n">
-        <v>5.962672730674967e-06</v>
+        <v>9.586118721927051e-06</v>
       </c>
       <c r="FQ2" t="n">
-        <v>2.231110920547508e-05</v>
+        <v>4.418921889737248e-06</v>
       </c>
       <c r="FR2" t="n">
-        <v>2.02520786842797e-05</v>
+        <v>3.812705017480766e-06</v>
       </c>
       <c r="FS2" t="n">
-        <v>7.261317659867927e-05</v>
+        <v>5.346457783161895e-07</v>
       </c>
       <c r="FT2" t="n">
-        <v>3.983491842518561e-05</v>
+        <v>4.107799895791686e-07</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.011762823414756e-06</v>
+        <v>3.580510110623436e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>4.637299934984185e-05</v>
+        <v>9.023131497087888e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>4.593857011059299e-05</v>
+        <v>7.303407983272336e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>3.210556678823195e-05</v>
+        <v>7.940103046166769e-07</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.895076275104657e-05</v>
+        <v>8.445164894510526e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>4.082676696270937e-06</v>
+        <v>8.964114499576681e-07</v>
       </c>
       <c r="GA2" t="n">
-        <v>4.048171831527725e-06</v>
+        <v>6.647081136179622e-06</v>
       </c>
       <c r="GB2" t="n">
-        <v>2.958167351607699e-05</v>
+        <v>3.20871731673833e-06</v>
       </c>
       <c r="GC2" t="n">
-        <v>7.569600711576641e-06</v>
+        <v>3.870020464091795e-06</v>
       </c>
       <c r="GD2" t="n">
-        <v>7.911526336101815e-05</v>
+        <v>4.486813395487843e-06</v>
       </c>
       <c r="GE2" t="n">
-        <v>3.044094955839682e-05</v>
+        <v>4.694090876000701e-06</v>
       </c>
       <c r="GF2" t="n">
-        <v>6.365092849591747e-05</v>
+        <v>5.760383828601334e-06</v>
       </c>
       <c r="GG2" t="n">
-        <v>1.380998310196446e-05</v>
+        <v>3.851861038128845e-06</v>
       </c>
     </row>
     <row r="3">
